--- a/MigrationProposal.xlsx
+++ b/MigrationProposal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ORMCRef</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>ORMC/2016/DEC/00103-1N</t>
+  </si>
+  <si>
+    <t>Testing Git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,14 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -439,7 +440,7 @@
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -497,7 +498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -524,6 +525,11 @@
       </c>
       <c r="I3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -532,24 +538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
